--- a/spreadsheets/Rumble.xlsx
+++ b/spreadsheets/Rumble.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\1_special\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04EC0E1-1CCC-4292-9B71-8494C344879A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C821351D-CC02-4594-97A2-2DBEA876D6AF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="30525" yWindow="3180" windowWidth="21525" windowHeight="11835" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -346,9 +346,6 @@
     <t>shit champ</t>
   </si>
   <si>
-    <t>ad matchups go seekers if you are even, if you're ahead you don't need it</t>
-  </si>
-  <si>
     <t>Went</t>
   </si>
   <si>
@@ -361,9 +358,6 @@
     <t>https://www.youtube.com/wentrumble</t>
   </si>
   <si>
-    <t>s6 master s7 master s8 master s9 gm</t>
-  </si>
-  <si>
     <t>Rumble</t>
   </si>
   <si>
@@ -377,6 +371,12 @@
   </si>
   <si>
     <t>I ban this champ every game but it's not an insanely hard matchup I just don’t like her</t>
+  </si>
+  <si>
+    <t>S6 Master S7 Master S8 Master S9 Grandmaster</t>
+  </si>
+  <si>
+    <t>AD matchups go seekers if you are even, if you're ahead you don't need it</t>
   </si>
 </sst>
 </file>
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF1A3E-B1DC-4DEF-A1FF-05C516225EE7}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>60</v>
@@ -919,7 +919,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>62</v>
@@ -930,7 +930,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>63</v>
@@ -941,7 +941,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -968,7 +968,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -981,10 +981,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A2A11A-8C34-4DB0-87EC-6C11DACD08FD}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1491,7 +1491,7 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
